--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew Gonzales\Documents\THESIS\Excel Cooordinates Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EC9CE1-C232-48AC-B80F-EC99CECBF1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93844E-18ED-4068-A902-BC0730558233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Red upper</t>
   </si>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33897DF2-FC0F-4FAA-A3EF-F7D5375498DA}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016B8F3-8304-4440-A58E-C8F8BCC1CB00}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,15 +724,51 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>159</v>
+      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>87</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>159</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-62</v>
+      </c>
+      <c r="C6" s="1">
+        <v>87</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93844E-18ED-4068-A902-BC0730558233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511012E-DC35-4390-931C-9BEBF3A374BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1920" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="5" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Red upper</t>
   </si>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -176,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,12 +190,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +229,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -516,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,7 +551,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="B7:C7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,7 +562,7 @@
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -548,8 +572,26 @@
       <c r="C1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>-62</v>
+      </c>
+      <c r="I1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -559,87 +601,61 @@
       <c r="C2" s="1">
         <v>-60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="F2">
         <v>-60</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
         <v>-62</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-62</v>
-      </c>
-      <c r="C6">
+      <c r="I2">
         <v>-60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -659,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016B8F3-8304-4440-A58E-C8F8BCC1CB00}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,51 +740,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>159</v>
-      </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>87</v>
-      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>159</v>
-      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>-62</v>
-      </c>
-      <c r="C6" s="1">
-        <v>87</v>
-      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -850,7 +830,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,13 +982,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="7">
+        <v>195</v>
+      </c>
+      <c r="C1" s="7">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="7">
+        <v>195</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7">
+        <v>195</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>195</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
+        <v>195</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1016,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A646329-D59B-450F-891E-5E267196DCF7}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7511012E-DC35-4390-931C-9BEBF3A374BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D35CF2-9451-4E7C-A572-A28284EAB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" firstSheet="1" activeTab="5" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,7 +843,7 @@
         <v>-145</v>
       </c>
       <c r="C1" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A646329-D59B-450F-891E-5E267196DCF7}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D35CF2-9451-4E7C-A572-A28284EAB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA979E-3EEE-4E5A-B081-83281D95ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
@@ -843,7 +843,7 @@
         <v>-145</v>
       </c>
       <c r="C1" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A646329-D59B-450F-891E-5E267196DCF7}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EA979E-3EEE-4E5A-B081-83281D95ADEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D54E84-AF2A-4F2A-AC7B-2E2028B787AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="2940" windowWidth="21600" windowHeight="11325" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="615" yWindow="2175" windowWidth="21600" windowHeight="11325" activeTab="4" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D54E84-AF2A-4F2A-AC7B-2E2028B787AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C98A3-0DBF-45B8-A525-C03F6142545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2175" windowWidth="21600" windowHeight="11325" activeTab="4" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="1">
-        <v>-145</v>
+        <v>-120</v>
       </c>
       <c r="C1" s="1">
         <v>6</v>
@@ -849,6 +849,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="1">
+        <f>J14-163</f>
         <v>-163</v>
       </c>
       <c r="F1" s="1">
@@ -984,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA27D23-19E6-4EDD-8799-ABB2D17C0FE4}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C98A3-0DBF-45B8-A525-C03F6142545D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C726FB-1FAA-4FE2-A6BF-46A933E1B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Data Acquisition" sheetId="4" r:id="rId4"/>
     <sheet name="Power Supply" sheetId="6" r:id="rId5"/>
     <sheet name="Switches" sheetId="7" r:id="rId6"/>
+    <sheet name="Wires" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>Red upper</t>
   </si>
@@ -107,13 +108,121 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W16</t>
+  </si>
+  <si>
+    <t>W7</t>
+  </si>
+  <si>
+    <t>W8</t>
+  </si>
+  <si>
+    <t>W9</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>W14</t>
+  </si>
+  <si>
+    <t>W15</t>
+  </si>
+  <si>
+    <t>W17</t>
+  </si>
+  <si>
+    <t>W18</t>
+  </si>
+  <si>
+    <t>W19</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>W25</t>
+  </si>
+  <si>
+    <t>W31</t>
+  </si>
+  <si>
+    <t>W21</t>
+  </si>
+  <si>
+    <t>W22</t>
+  </si>
+  <si>
+    <t>W23</t>
+  </si>
+  <si>
+    <t>W24</t>
+  </si>
+  <si>
+    <t>W26</t>
+  </si>
+  <si>
+    <t>W27</t>
+  </si>
+  <si>
+    <t>W28</t>
+  </si>
+  <si>
+    <t>W29</t>
+  </si>
+  <si>
+    <t>W30</t>
+  </si>
+  <si>
+    <t>W32</t>
+  </si>
+  <si>
+    <t>W33</t>
+  </si>
+  <si>
+    <t>W34</t>
+  </si>
+  <si>
+    <t>W35</t>
+  </si>
+  <si>
+    <t>W36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +252,14 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +296,12 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -210,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +354,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F221D418-A287-4E19-833D-E3191BD71818}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1243,4 +1365,356 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9715EC6-61B3-4DCF-A074-C4ABEA9F0A07}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+      <c r="C1">
+        <v>-20</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1">
+        <v>100</v>
+      </c>
+      <c r="F1">
+        <v>-10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1">
+        <v>100</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1">
+        <v>100</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1">
+        <v>100</v>
+      </c>
+      <c r="O1">
+        <v>20</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1">
+        <v>100</v>
+      </c>
+      <c r="R1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2">
+        <v>-20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>-10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>90</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2">
+        <v>90</v>
+      </c>
+      <c r="R2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <v>-20</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>80</v>
+      </c>
+      <c r="F3">
+        <v>-10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
+        <v>80</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <v>80</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3">
+        <v>80</v>
+      </c>
+      <c r="R3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>70</v>
+      </c>
+      <c r="C4">
+        <v>-20</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>-10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4">
+        <v>70</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4">
+        <v>70</v>
+      </c>
+      <c r="R4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>60</v>
+      </c>
+      <c r="C5">
+        <v>-20</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>-10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>60</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>20</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>-20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>-10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6">
+        <v>50</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6">
+        <v>50</v>
+      </c>
+      <c r="R6">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Main Build/coordinates_py.xlsx
+++ b/Main Build/coordinates_py.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Documents\GitHub\Thesis\Main Build\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C726FB-1FAA-4FE2-A6BF-46A933E1B0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2617D879-D370-499F-85DB-61BF3A47F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
+    <workbookView xWindow="2805" yWindow="1245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{FBE0E9E0-50FF-4220-989A-C46FC45291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Middle Lower Load" sheetId="1" r:id="rId1"/>
@@ -797,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016B8F3-8304-4440-A58E-C8F8BCC1CB00}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9715EC6-61B3-4DCF-A074-C4ABEA9F0A07}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q6"/>
     </sheetView>
   </sheetViews>
